--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H2">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I2">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J2">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>119.250382427649</v>
+        <v>3.482410591296</v>
       </c>
       <c r="R2">
-        <v>1073.253441848841</v>
+        <v>31.341695321664</v>
       </c>
       <c r="S2">
-        <v>0.07020170683110757</v>
+        <v>0.0023909132244365</v>
       </c>
       <c r="T2">
-        <v>0.07020170683110757</v>
+        <v>0.0023909132244365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H3">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I3">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J3">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>111.034053879309</v>
+        <v>55.52879411206399</v>
       </c>
       <c r="R3">
-        <v>999.306484913781</v>
+        <v>499.759147008576</v>
       </c>
       <c r="S3">
-        <v>0.06536482265315888</v>
+        <v>0.03812431782495135</v>
       </c>
       <c r="T3">
-        <v>0.06536482265315888</v>
+        <v>0.03812431782495135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H4">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I4">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J4">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>216.259754963373</v>
+        <v>181.059018934976</v>
       </c>
       <c r="R4">
-        <v>1946.337794670357</v>
+        <v>1629.531170414784</v>
       </c>
       <c r="S4">
-        <v>0.1273103163968208</v>
+        <v>0.1243094090791941</v>
       </c>
       <c r="T4">
-        <v>0.1273103163968208</v>
+        <v>0.1243094090791941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>430.617522</v>
       </c>
       <c r="I5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>125.5953897046514</v>
+        <v>7.333847017182</v>
       </c>
       <c r="R5">
-        <v>1130.358507341862</v>
+        <v>66.004623154638</v>
       </c>
       <c r="S5">
-        <v>0.07393695976391566</v>
+        <v>0.005035187942283686</v>
       </c>
       <c r="T5">
-        <v>0.07393695976391565</v>
+        <v>0.005035187942283687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>430.617522</v>
       </c>
       <c r="I6">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J6">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
         <v>116.9418913681047</v>
@@ -818,10 +818,10 @@
         <v>1052.477022312942</v>
       </c>
       <c r="S6">
-        <v>0.06884271737308474</v>
+        <v>0.08028861250923429</v>
       </c>
       <c r="T6">
-        <v>0.06884271737308474</v>
+        <v>0.08028861250923429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>430.617522</v>
       </c>
       <c r="I7">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J7">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>227.766382372286</v>
+        <v>381.3045909259087</v>
       </c>
       <c r="R7">
-        <v>2049.897441350574</v>
+        <v>3431.741318333178</v>
       </c>
       <c r="S7">
-        <v>0.134084172107224</v>
+        <v>0.2617917000544794</v>
       </c>
       <c r="T7">
-        <v>0.134084172107224</v>
+        <v>0.2617917000544794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H8">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I8">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J8">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N8">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q8">
-        <v>208.7901577570598</v>
+        <v>10.311715664082</v>
       </c>
       <c r="R8">
-        <v>1879.111419813538</v>
+        <v>92.80544097673798</v>
       </c>
       <c r="S8">
-        <v>0.1229130267399745</v>
+        <v>0.0070796985885307</v>
       </c>
       <c r="T8">
-        <v>0.1229130267399745</v>
+        <v>0.007079698588530701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H9">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I9">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J9">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q9">
-        <v>194.4045558087175</v>
+        <v>164.425509583538</v>
       </c>
       <c r="R9">
-        <v>1749.641002278458</v>
+        <v>1479.829586251842</v>
       </c>
       <c r="S9">
-        <v>0.1144443426988206</v>
+        <v>0.1128893664292718</v>
       </c>
       <c r="T9">
-        <v>0.1144443426988206</v>
+        <v>0.1128893664292718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H10">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I10">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J10">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N10">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q10">
-        <v>378.6395266505807</v>
+        <v>536.1312437831419</v>
       </c>
       <c r="R10">
-        <v>3407.755739855226</v>
+        <v>4825.181194048278</v>
       </c>
       <c r="S10">
-        <v>0.2229019354358933</v>
+        <v>0.368090794347618</v>
       </c>
       <c r="T10">
-        <v>0.2229019354358933</v>
+        <v>0.3680907943476181</v>
       </c>
     </row>
   </sheetData>
